--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4139532.681782663</v>
+        <v>4141351.953473703</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287937</v>
+        <v>9964927.035287924</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717214</v>
+        <v>430763.7823717227</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>34.84401912571873</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>104.8161677931376</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>120.8576927221048</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>35.78014686154416</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.88877949312959</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>100.5586027548385</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.09480221987788354</v>
       </c>
       <c r="S8" t="n">
-        <v>43.80431246487684</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.31590541686252</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>17.91582343699943</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>90.70669256542079</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.1983720868895</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.5766827123819</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
         <v>283.5630920045443</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>91.23885045891498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>148.5533506022767</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>9.434273714506089</v>
+        <v>76.61502530558695</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>119.6698097633031</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.102241693790036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>131.6267707433244</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>94.94382810780758</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>105.3798824585354</v>
+        <v>64.44601915223838</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3125,7 +3125,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>91.23885045891498</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>36.53032011471353</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793497</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>105.3798824585327</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>81.37259901119292</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>64.44601915224106</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>81.3725990111956</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>81.37259901119292</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081983</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
@@ -4073,7 +4073,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
         <v>188.3907690366107</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,10 +4152,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4539897919539</v>
+        <v>86.2717922279349</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440915</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108373</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
         <v>181.338488358459</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>174.4587308694398</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.649320534154</v>
+        <v>823.3126770315976</v>
       </c>
       <c r="C2" t="n">
-        <v>180.6868035937422</v>
+        <v>454.3501600911858</v>
       </c>
       <c r="D2" t="n">
-        <v>180.6868035937422</v>
+        <v>96.08446148443534</v>
       </c>
       <c r="E2" t="n">
-        <v>180.6868035937422</v>
+        <v>96.08446148443534</v>
       </c>
       <c r="F2" t="n">
-        <v>173.7413028445388</v>
+        <v>89.13896073523186</v>
       </c>
       <c r="G2" t="n">
-        <v>159.8178987831297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>159.8178987831297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
         <v>709.5665374816297</v>
@@ -4482,10 +4482,10 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1331.061315312042</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C5" t="n">
-        <v>1331.061315312042</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>972.7956167052919</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>587.0073641070476</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>176.02145931744</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1331.061315312042</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,16 +4649,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>370.1736527319063</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>201.1738524702387</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>201.1738524702387</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250782</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.3053441250782</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>818.8658378359718</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.053331200164</v>
       </c>
       <c r="S8" t="n">
-        <v>2652.90231075067</v>
+        <v>2520.875843514334</v>
       </c>
       <c r="T8" t="n">
-        <v>2652.90231075067</v>
+        <v>2520.875843514334</v>
       </c>
       <c r="U8" t="n">
-        <v>2652.90231075067</v>
+        <v>2267.114058152426</v>
       </c>
       <c r="V8" t="n">
-        <v>2321.839423407099</v>
+        <v>1936.051170808855</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.070768136985</v>
+        <v>1583.282515538741</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.605009875905</v>
+        <v>1209.816757277661</v>
       </c>
       <c r="Y8" t="n">
-        <v>1205.465677900094</v>
+        <v>819.6774253018493</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4886,40 +4886,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.55736257324</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>702.55736257324</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>702.55736257324</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>702.55736257324</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>702.55736257324</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>702.55736257324</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5029,40 +5029,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>424.1437450015126</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K11" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.298471234009</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.583449151116</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
@@ -5074,19 +5074,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668126</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.737405310565</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M12" t="n">
-        <v>1062.737405310565</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N12" t="n">
-        <v>1684.833368709902</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.709843710097</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>654.5023284669177</v>
+        <v>746.1252502501684</v>
       </c>
       <c r="C13" t="n">
-        <v>485.5661455390108</v>
+        <v>577.1890673222615</v>
       </c>
       <c r="D13" t="n">
-        <v>485.5661455390108</v>
+        <v>427.0724279099258</v>
       </c>
       <c r="E13" t="n">
-        <v>485.5661455390108</v>
+        <v>279.1593343275326</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5661455390108</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3519507135896</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H13" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2337.789577552443</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.110795266825</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U13" t="n">
-        <v>1829.034581581552</v>
+        <v>1920.657503364803</v>
       </c>
       <c r="V13" t="n">
-        <v>1574.350093375665</v>
+        <v>1665.973015158916</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.932923338705</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.943372440687</v>
+        <v>1148.566294223938</v>
       </c>
       <c r="Y13" t="n">
-        <v>836.1507932971574</v>
+        <v>927.7737150804081</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160703</v>
@@ -5278,28 +5278,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5357,28 +5357,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>241.4963299034533</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L15" t="n">
-        <v>732.2286627472052</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M15" t="n">
-        <v>732.2286627472052</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N15" t="n">
-        <v>1354.324626146542</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O15" t="n">
-        <v>1901.201101146738</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
-        <v>2320.784619572814</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>402.9352599385978</v>
+        <v>390.8549350618531</v>
       </c>
       <c r="D16" t="n">
-        <v>402.9352599385978</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E16" t="n">
-        <v>402.9352599385978</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H16" t="n">
         <v>93.84834815160703</v>
@@ -5436,52 +5436,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127629</v>
@@ -5515,28 +5515,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507205</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384032</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
@@ -5548,19 +5548,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>241.4963299034533</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>734.6951238849103</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284247</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476028</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C19" t="n">
-        <v>402.9352599385978</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D19" t="n">
-        <v>402.9352599385978</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="E19" t="n">
-        <v>402.9352599385978</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385978</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5673,52 +5673,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062238</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856351</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.52630981939</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213727</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778425</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160703</v>
@@ -5752,28 +5752,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946813</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5831,22 +5831,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.737405310565</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>1654.755759562693</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N21" t="n">
-        <v>2276.85172296203</v>
+        <v>1684.833368709899</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.812354695766</v>
+        <v>2231.709843710093</v>
       </c>
       <c r="P21" t="n">
         <v>2553.812354695766</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476028</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C22" t="n">
-        <v>485.5661455390108</v>
+        <v>485.566145539011</v>
       </c>
       <c r="D22" t="n">
-        <v>485.5661455390108</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E22" t="n">
-        <v>485.5661455390108</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5661455390108</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135896</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520201</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062238</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856351</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.52630981939</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213727</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778425</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="23">
@@ -5977,46 +5977,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
@@ -6068,22 +6068,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>572.0050724668126</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1164.023426718941</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N24" t="n">
-        <v>1786.119390118278</v>
+        <v>1684.833368709899</v>
       </c>
       <c r="O24" t="n">
-        <v>2332.995865118473</v>
+        <v>2231.709843710093</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.7042115721531</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7680286442462</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6513892319105</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7382956495174</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F25" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G25" t="n">
         <v>93.84834815160703</v>
@@ -6147,52 +6147,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3526764023928</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946813</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6305,25 +6305,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668126</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L27" t="n">
-        <v>1062.737405310565</v>
+        <v>689.55324463298</v>
       </c>
       <c r="M27" t="n">
-        <v>1654.755759562693</v>
+        <v>1281.571598885108</v>
       </c>
       <c r="N27" t="n">
-        <v>2276.85172296203</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O27" t="n">
-        <v>2276.85172296203</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.9550599891011</v>
+        <v>965.8040325357866</v>
       </c>
       <c r="C28" t="n">
-        <v>394.0188770611942</v>
+        <v>796.8678496078797</v>
       </c>
       <c r="D28" t="n">
-        <v>394.0188770611942</v>
+        <v>646.751210195544</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0625429770282</v>
+        <v>498.8381166131509</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H28" t="n">
         <v>93.84834815160703</v>
@@ -6384,52 +6384,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074627</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T28" t="n">
-        <v>2026.563526789009</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="U28" t="n">
-        <v>1737.487313103736</v>
+        <v>2140.336285650421</v>
       </c>
       <c r="V28" t="n">
-        <v>1482.802824897849</v>
+        <v>1885.651797444534</v>
       </c>
       <c r="W28" t="n">
-        <v>1193.385654860888</v>
+        <v>1596.234627407574</v>
       </c>
       <c r="X28" t="n">
-        <v>965.3961039628709</v>
+        <v>1368.245076509556</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.6035248193408</v>
+        <v>1147.452497366026</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946813</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.53409905282</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6542,25 +6542,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K30" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
-        <v>241.4963299034533</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>734.6951238849103</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.791087284247</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284443</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>495.0957149476028</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6513892319105</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G31" t="n">
         <v>93.84834815160703</v>
@@ -6621,52 +6621,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
         <v>380.2757138127627</v>
@@ -6700,28 +6700,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
@@ -6779,19 +6779,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668126</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310565</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.755759562693</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N33" t="n">
-        <v>2276.85172296203</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O33" t="n">
         <v>2553.812354695766</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149476028</v>
+        <v>744.6035248193385</v>
       </c>
       <c r="C34" t="n">
-        <v>495.0957149476028</v>
+        <v>575.6673418914316</v>
       </c>
       <c r="D34" t="n">
-        <v>495.0957149476028</v>
+        <v>425.5507024790959</v>
       </c>
       <c r="E34" t="n">
-        <v>495.0957149476028</v>
+        <v>277.6376088967028</v>
       </c>
       <c r="F34" t="n">
-        <v>402.9352599385978</v>
+        <v>130.7476613987924</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H34" t="n">
         <v>93.84834815160703</v>
@@ -6858,52 +6858,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062238</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.943479856351</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W34" t="n">
-        <v>1125.52630981939</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X34" t="n">
-        <v>897.5367589213727</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778425</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6925,10 +6925,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H35" t="n">
         <v>93.84834815160703</v>
@@ -6964,25 +6964,25 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7019,16 +7019,16 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>241.4963299034529</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>732.2286627472042</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6951238849133</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284249</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O36" t="n">
         <v>1903.667562284444</v>
@@ -7080,10 +7080,10 @@
         <v>495.0957149476001</v>
       </c>
       <c r="E37" t="n">
-        <v>347.182621365207</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F37" t="n">
-        <v>200.2926738672966</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
         <v>93.84834815160703</v>
@@ -7162,46 +7162,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
@@ -7253,25 +7253,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668126</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L39" t="n">
-        <v>572.0050724668126</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="M39" t="n">
-        <v>1164.023426718941</v>
+        <v>833.5146841555804</v>
       </c>
       <c r="N39" t="n">
-        <v>1786.119390118278</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O39" t="n">
-        <v>2332.995865118473</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>326.1595320196959</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D40" t="n">
-        <v>326.1595320196959</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E40" t="n">
-        <v>326.1595320196959</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F40" t="n">
-        <v>326.1595320196959</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G40" t="n">
-        <v>158.9453371942748</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
         <v>93.84834815160703</v>
@@ -7332,52 +7332,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7405,40 +7405,40 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160683</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507206</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.293909294972</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.29847123401</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151117</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
@@ -7484,31 +7484,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0050724668126</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L42" t="n">
-        <v>1062.737405310565</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="M42" t="n">
-        <v>1654.755759562693</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N42" t="n">
-        <v>2276.85172296203</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.812354695766</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>326.1595320196959</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D43" t="n">
-        <v>176.0428926073602</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E43" t="n">
-        <v>93.84834815160704</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7636,43 +7636,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160718</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>373.3442236507193</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>842.9746074384002</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.494387944173</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2183.49894988321</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2920.783927800314</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3603.645964259451</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297608</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
         <v>4606.9501443472</v>
@@ -7718,31 +7718,31 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>241.4963299034526</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>572.0050724668106</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.737405310561</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M45" t="n">
-        <v>1654.755759562687</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N45" t="n">
-        <v>2276.851722962022</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.812354695766</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P45" t="n">
         <v>2553.812354695766</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.3053695472215</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>780.3691866193146</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D46" t="n">
-        <v>780.3691866193146</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E46" t="n">
-        <v>632.4560930369215</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="F46" t="n">
-        <v>485.5661455390111</v>
+        <v>348.2057674496897</v>
       </c>
       <c r="G46" t="n">
-        <v>318.35195071359</v>
+        <v>180.9915726242685</v>
       </c>
       <c r="H46" t="n">
-        <v>176.4792337520203</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411607</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117239</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>820.2210160948575</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1239.450608139316</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1654.146473931023</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.168930946052</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2311.699365782256</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2361.553154294192</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2178.382964033122</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1958.704181747504</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1669.627968062231</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1414.943479856344</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1125.526309819383</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>949.3053695472215</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>949.3053695472215</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.31264782908289</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>51.31264782908261</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>51.31264782908261</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782908309</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>51.31264782908374</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>51.31264782910114</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>127.5052245859318</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>90.63179579303814</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>64.04844901173834</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>76.00797063971285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>76.00797063971285</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>16.98870227489027</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>157.8125473841218</v>
+        <v>90.63179579304088</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>60.16217041863419</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>210.4824116583048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>14.80719190324481</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>50.47721991512367</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>43.23559055967699</v>
+        <v>84.16945386597398</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>54.18219756401626</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>129.0117327624534</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>60.1621704186342</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>60.16217041863425</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537625</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>76.00797063971282</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>65.06136363537357</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>64.04844901173833</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
@@ -25806,7 +25806,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>54.18219756401902</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>51.25092451959733</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642834</v>
-      </c>
       <c r="E2" t="n">
-        <v>806682.9771185594</v>
+        <v>806682.9771185589</v>
       </c>
       <c r="F2" t="n">
         <v>806682.9771185591</v>
       </c>
       <c r="G2" t="n">
+        <v>806682.9771185591</v>
+      </c>
+      <c r="H2" t="n">
+        <v>806682.9771185591</v>
+      </c>
+      <c r="I2" t="n">
+        <v>806682.9771185591</v>
+      </c>
+      <c r="J2" t="n">
+        <v>806682.9771185591</v>
+      </c>
+      <c r="K2" t="n">
         <v>806682.9771185592</v>
-      </c>
-      <c r="H2" t="n">
-        <v>806682.9771185592</v>
-      </c>
-      <c r="I2" t="n">
-        <v>806682.9771185592</v>
-      </c>
-      <c r="J2" t="n">
-        <v>806682.9771185592</v>
-      </c>
-      <c r="K2" t="n">
-        <v>806682.9771185593</v>
       </c>
       <c r="L2" t="n">
         <v>806682.9771185592</v>
       </c>
       <c r="M2" t="n">
-        <v>806682.9771185592</v>
+        <v>806682.9771185589</v>
       </c>
       <c r="N2" t="n">
+        <v>806682.9771185588</v>
+      </c>
+      <c r="O2" t="n">
         <v>806682.9771185591</v>
       </c>
-      <c r="O2" t="n">
-        <v>806682.9771185595</v>
-      </c>
       <c r="P2" t="n">
-        <v>806682.9771185588</v>
+        <v>806682.9771185593</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545134</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901361</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.098714619729435e-09</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-7.546847158422069e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.91576066282</v>
+        <v>5069.915760662917</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.915760662858</v>
+        <v>5069.915760662968</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760662867</v>
+        <v>5069.915760662915</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.91576066282</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="I4" t="n">
-        <v>5069.915760662818</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760662861</v>
+        <v>5069.91576066296</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.915760662823</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="L4" t="n">
-        <v>5069.91576066282</v>
+        <v>5069.915760662918</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662952</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662823</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662831</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="P4" t="n">
-        <v>5069.915760663038</v>
+        <v>5069.915760662916</v>
       </c>
     </row>
     <row r="5">
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
         <v>100930.0394572385</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43991.78380610058</v>
+        <v>-43991.78380610069</v>
       </c>
       <c r="C6" t="n">
-        <v>545976.0954084441</v>
+        <v>545976.0954084439</v>
       </c>
       <c r="D6" t="n">
         <v>545976.0954084442</v>
       </c>
       <c r="E6" t="n">
-        <v>-236185.6133724985</v>
+        <v>-235862.5405357191</v>
       </c>
       <c r="F6" t="n">
-        <v>700324.0520820145</v>
+        <v>700647.1249187932</v>
       </c>
       <c r="G6" t="n">
-        <v>700324.0520820147</v>
+        <v>700647.1249187933</v>
       </c>
       <c r="H6" t="n">
-        <v>700324.0520820147</v>
+        <v>700647.1249187933</v>
       </c>
       <c r="I6" t="n">
-        <v>700324.0520820147</v>
+        <v>700647.1249187933</v>
       </c>
       <c r="J6" t="n">
-        <v>523900.8328894217</v>
+        <v>524223.9057262003</v>
       </c>
       <c r="K6" t="n">
-        <v>700324.0520820147</v>
+        <v>700647.1249187934</v>
       </c>
       <c r="L6" t="n">
-        <v>700324.0520820147</v>
+        <v>700647.1249187934</v>
       </c>
       <c r="M6" t="n">
-        <v>576016.8406918786</v>
+        <v>576339.913528656</v>
       </c>
       <c r="N6" t="n">
-        <v>700324.0520820136</v>
+        <v>700647.1249187931</v>
       </c>
       <c r="O6" t="n">
-        <v>700324.052082015</v>
+        <v>700647.1249187933</v>
       </c>
       <c r="P6" t="n">
-        <v>700324.0520820167</v>
+        <v>700647.1249187936</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716384</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844993005</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,16 +26992,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-4.515190420663536e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>378.9401508950763</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>47.11514845172367</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>292.9264772986902</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>350.4577917945094</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.94320068880771</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>34.40701903749975</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.38360035493384</v>
       </c>
       <c r="S8" t="n">
-        <v>130.6114003440946</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538051777</v>
+        <v>14.59587156758289</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>471.688653684823</v>
+        <v>199.0463877591108</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>226.4403033743528</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>199.0463877591108</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>339.6802901355583</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>640.314633903288</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927647</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>422.3544583169052</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>459.3304791170305</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>357.021366583313</v>
+        <v>459.3304791170305</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745732</v>
+        <v>591.1371219309116</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>413.732621286791</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H28" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R28" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T28" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>640.314633903288</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426213</v>
+        <v>189.4642825742353</v>
       </c>
       <c r="P30" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H31" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T31" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>471.688653684823</v>
+        <v>199.0463877591108</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>422.3544583169052</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H34" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R34" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T34" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33739,19 +33739,19 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>144.6254088085931</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>382.7677754386397</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>557.7961431982453</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927647</v>
+        <v>659.9037354456252</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>357.021366583313</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745732</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504309</v>
+        <v>640.3146339032915</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>422.3544583169052</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377417</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122274</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874057</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083042</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>861.543971036425</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293294</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229593</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086938</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687511</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148597</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987157</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665716</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4367569201901933</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.9210694255409</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088186</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>275.9770021735814</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>471.6886536848217</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745715</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>740.132371550429</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927626</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>422.3544583169135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>413.7326212867947</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.25758340862151</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.77318271548564</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284914</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265016</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282419</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.0641983561739</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.46359496551967</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.6317139898036</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020592</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N11" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>333.847214710464</v>
+        <v>61.20494878475177</v>
       </c>
       <c r="L12" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>92.46589596002259</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>796.0449487554536</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845846</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>61.20494878475177</v>
       </c>
       <c r="L15" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.6985160495367</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607207</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>498.1805999812698</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094314</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>418.5673812694946</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845846</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>279.7582138724608</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>325.3560717027003</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>796.0449487554536</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845846</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>223.0469591689828</v>
+        <v>325.3560717027003</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N26" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q26" t="n">
-        <v>418.5673812694946</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845846</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>495.689225094699</v>
+        <v>452.5827421510374</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>279.7582138724608</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136676</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>498.1805999812698</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981769</v>
+        <v>46.86803812979091</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
-        <v>744.732300926371</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>418.5673812694946</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>333.847214710464</v>
+        <v>61.20494878475177</v>
       </c>
       <c r="L33" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>279.7582138724608</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>2.491374886574823</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>423.8217357839151</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664402</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094314</v>
+        <v>528.5620233622919</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>223.0469591689828</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L40" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>677.0902038955239</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845846</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>495.689225094699</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284126</v>
+        <v>498.1805999812731</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>279.7582138724608</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607194</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380614</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664377</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2874363020567</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263685</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>689.759632787007</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>605.1570404425828</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404102</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845836</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069147</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>333.8472147104627</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946973</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284106</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094293</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>279.758213872469</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066024</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>391.6786041243774</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606353</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931354</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
